--- a/public/time.xlsx
+++ b/public/time.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -28,12 +28,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -489,7 +490,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,6 +636,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -642,11 +648,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -696,6 +702,9 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="千位分隔 4" xfId="51"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1170,20 +1179,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>45719.5</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <f>C1+B2</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
